--- a/HDK/DBBC7505S-F/Project Outputs for DBBC7505S-F/DBBC7505S-F.xlsx
+++ b/HDK/DBBC7505S-F/Project Outputs for DBBC7505S-F/DBBC7505S-F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27723"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sch\Desktop\Digital_BuckBoostPower\HDK\DBBC7505S-F\Project Outputs for DBBC7505S-F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A36A95-E2AD-4C1F-9D90-D801BDA9BB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{231D41A9-63DB-4F2F-BC58-F17D3F4C8261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="3570" windowWidth="32370" windowHeight="15435" xr2:uid="{F3431DB8-8304-4EF8-AF0E-3ED66434089E}"/>
+    <workbookView xWindow="1710" yWindow="5520" windowWidth="32370" windowHeight="15480" xr2:uid="{D0198CFC-CA93-4353-B289-9DCD1A05BFFB}"/>
   </bookViews>
   <sheets>
     <sheet name="DBBC7505S-F" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="137">
   <si>
     <t>Comment</t>
   </si>
@@ -65,7 +65,7 @@
     <t/>
   </si>
   <si>
-    <t>C1, C2</t>
+    <t>C1</t>
   </si>
   <si>
     <t>C0402</t>
@@ -363,18 +363,6 @@
   </si>
   <si>
     <t>SOIC-8_L4.9-W3.9-P1.27-LS6.0-BL</t>
-  </si>
-  <si>
-    <t>REF3033AIDBZR</t>
-  </si>
-  <si>
-    <t>3.3V基准电压源</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>SOT-23-3_L3.0-W1.7-P0.95-LS2.9-BR</t>
   </si>
   <si>
     <t>CSA240LCSOIC8</t>
@@ -877,8 +865,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58588A7F-B37E-4AF9-A469-F1D9A48C255D}">
-  <dimension ref="A1:F44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD31714D-F88A-4274-ACD5-D29676B5C7D4}">
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -924,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1618,47 +1606,47 @@
         <v>110</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>119</v>
@@ -1678,50 +1666,50 @@
         <v>122</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
@@ -1729,41 +1717,21 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" s="1">
         <v>1</v>
       </c>
     </row>
